--- a/libs/pic/Tables.xlsx
+++ b/libs/pic/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzeng/Library/CloudStorage/GoogleDrive-wz192@georgetown.edu/My Drive/GU/Teach/2026-01-Spring/GLOH-6604/gloh6604-s1/libs/pic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D56B5CE-CE3D-A149-A497-DF494F2A6EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1479F1AA-389A-3E44-9CC1-56057D7E5048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15460" yWindow="3820" windowWidth="28040" windowHeight="15940" activeTab="2" xr2:uid="{C4EFC199-4AE4-2648-AAE0-2F4C20B0A77A}"/>
+    <workbookView xWindow="15020" yWindow="2760" windowWidth="28040" windowHeight="15940" activeTab="2" xr2:uid="{C4EFC199-4AE4-2648-AAE0-2F4C20B0A77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -196,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -517,7 +517,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,7 +902,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/libs/pic/Tables.xlsx
+++ b/libs/pic/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzeng/Library/CloudStorage/GoogleDrive-wz192@georgetown.edu/My Drive/GU/Teach/2026-01-Spring/GLOH-6604/gloh6604-s1/libs/pic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1479F1AA-389A-3E44-9CC1-56057D7E5048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D7F279-561C-D843-94B6-9912A077F413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="2760" windowWidth="28040" windowHeight="15940" activeTab="2" xr2:uid="{C4EFC199-4AE4-2648-AAE0-2F4C20B0A77A}"/>
+    <workbookView xWindow="10360" yWindow="2760" windowWidth="28040" windowHeight="15940" xr2:uid="{C4EFC199-4AE4-2648-AAE0-2F4C20B0A77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t>Prevented cases</t>
   </si>
   <si>
-    <t xml:space="preserve">DALYs gained </t>
-  </si>
-  <si>
     <t>ICER (HS/QALY)</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Quantity2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QALYs gained </t>
   </si>
 </sst>
 </file>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14432F96-A4E2-3341-8D8D-4F8A97093FDB}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,10 +536,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5">
         <f>500/30/8/60</f>
@@ -716,7 +716,7 @@
     </row>
     <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2">
         <f>E6-E7</f>
@@ -750,7 +750,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E12" s="6">
         <f>Sheet2!F4</f>
@@ -768,7 +768,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3">
         <f>E10/E11</f>
@@ -777,7 +777,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3">
         <f>E9/E12</f>
@@ -786,7 +786,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1">
         <f>E10/E12</f>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D50B431-7F82-024E-A12E-197E0591E009}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -921,10 +921,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5">
         <f>500/30/8/60</f>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2">
         <f>E6-E7</f>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E12" s="6">
         <f>F27</f>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3">
         <f>E10/E11</f>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3">
         <f>E9/E12</f>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1">
         <f>E10/E12</f>
